--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>num_boids</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>blocksize</t>
+  </si>
+  <si>
+    <t>Without Visualization and 100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naïve </t>
   </si>
 </sst>
 </file>
@@ -98,6 +104,5546 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17943477995483123"/>
+          <c:y val="3.3212507195527416E-2"/>
+          <c:w val="0.81466184459500701"/>
+          <c:h val="0.77382737304804217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coherent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="633899376"/>
+        <c:axId val="633907216"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>num_boids</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633899376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Boids (in 100K)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3331474699383507"/>
+              <c:y val="0.90805722902322217"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633907216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633907216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.875968992248062E-3"/>
+              <c:y val="0.33746535552928369"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633899376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73207318561923951"/>
+          <c:y val="0.18367223533433671"/>
+          <c:w val="0.24467100042727216"/>
+          <c:h val="0.30612451869123058"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17943477995483123"/>
+          <c:y val="3.3212507195527416E-2"/>
+          <c:w val="0.81552340841115789"/>
+          <c:h val="0.77987423479821349"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coherent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="636783936"/>
+        <c:axId val="636787856"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>num_boids</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636783936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Boids (in 100K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36496917536470741"/>
+              <c:y val="0.90805722902322217"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636787856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636787856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.875968992248062E-3"/>
+              <c:y val="0.33746535552928369"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636783936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73207318561923951"/>
+          <c:y val="0.21995340583536444"/>
+          <c:w val="0.24467100042727216"/>
+          <c:h val="0.30612451869123058"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17555881096258316"/>
+          <c:y val="3.3212507195527416E-2"/>
+          <c:w val="0.62495413492517138"/>
+          <c:h val="0.79801482004872737"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26:$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>naïve </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coherent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="636136688"/>
+        <c:axId val="636137080"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>num_boids</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$27:$A$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$27:$A$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636136688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Blocksize,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> logarthmic scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35948483183788071"/>
+              <c:y val="0.90805722902322217"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636137080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636137080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.875968992248062E-3"/>
+              <c:y val="0.33746535552928369"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636136688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80061387411457396"/>
+          <c:y val="0.34089064083879017"/>
+          <c:w val="0.19576151100560091"/>
+          <c:h val="0.30615236049049749"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20676306780942624"/>
+          <c:y val="0.19647777445015219"/>
+          <c:w val="0.76593330790318592"/>
+          <c:h val="0.19332864503159844"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>blocksize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coherent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="540931584"/>
+        <c:axId val="540928056"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>num_boids</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$27:$A$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$27:$A$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540931584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540928056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540928056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540931584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>458932</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>148341</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5012399" y="4752976"/>
+          <a:ext cx="4095233" cy="3015365"/>
+          <a:chOff x="5003800" y="4752975"/>
+          <a:chExt cx="4092309" cy="3015639"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="Group 24"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5003800" y="4752975"/>
+            <a:ext cx="4092309" cy="2100263"/>
+            <a:chOff x="5003800" y="4752975"/>
+            <a:chExt cx="4092309" cy="2100263"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3"/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="5003800" y="4752975"/>
+            <a:ext cx="4092309" cy="2100263"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="24" name="Group 23"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5674961" y="6183047"/>
+              <a:ext cx="102403" cy="222250"/>
+              <a:chOff x="4587755" y="5098444"/>
+              <a:chExt cx="466507" cy="1227666"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="15" name="Group 14"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm flipH="1">
+                <a:off x="4587755" y="5490027"/>
+                <a:ext cx="466507" cy="433918"/>
+                <a:chOff x="2769556" y="5200557"/>
+                <a:chExt cx="666775" cy="403405"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="13" name="Group 12"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="2769556" y="5200557"/>
+                  <a:ext cx="666775" cy="335112"/>
+                  <a:chOff x="2769556" y="5200557"/>
+                  <a:chExt cx="666775" cy="335112"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="7" name="Straight Connector 6"/>
+                  <xdr:cNvCxnSpPr/>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm flipH="1">
+                    <a:off x="2822481" y="5200557"/>
+                    <a:ext cx="301141" cy="45130"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="line">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="9525">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="9" name="Straight Connector 8"/>
+                  <xdr:cNvCxnSpPr/>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2822501" y="5256271"/>
+                    <a:ext cx="613824" cy="89957"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="line">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="9525">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="11" name="Straight Connector 10"/>
+                  <xdr:cNvCxnSpPr/>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm flipH="1">
+                    <a:off x="2822501" y="5356813"/>
+                    <a:ext cx="613830" cy="89957"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="line">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="9525">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="12" name="Straight Connector 11"/>
+                  <xdr:cNvCxnSpPr/>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2769556" y="5445712"/>
+                    <a:ext cx="613843" cy="89957"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="line">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="9525">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+            </xdr:grpSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="14" name="Straight Connector 13"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1">
+                  <a:off x="3097569" y="5542019"/>
+                  <a:ext cx="332405" cy="61943"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="21" name="Straight Connector 20"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="4804666" y="5098444"/>
+                <a:ext cx="0" cy="386291"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="23" name="Straight Connector 22"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4807015" y="5918652"/>
+                <a:ext cx="0" cy="407458"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Chart 4"/>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5079487" y="5668351"/>
+          <a:ext cx="3270249" cy="2100263"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07991</cdr:x>
+      <cdr:y>0.68985</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20608</cdr:x>
+      <cdr:y>0.77803</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="261408" y="1448858"/>
+          <a:ext cx="412750" cy="185209"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,10 +5909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +5941,8 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1000</v>
+        <f>1000/100000</f>
+        <v>0.01</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -409,7 +5956,8 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5000</v>
+        <f>5000/100000</f>
+        <v>0.05</v>
       </c>
       <c r="B4">
         <v>650</v>
@@ -423,7 +5971,8 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10000</v>
+        <f>10000/100000</f>
+        <v>0.1</v>
       </c>
       <c r="B5">
         <v>330</v>
@@ -437,7 +5986,8 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50000</v>
+        <f>50000/100000</f>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -451,7 +6001,8 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100000</v>
+        <f>100000/100000</f>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>5.5</v>
@@ -465,7 +6016,8 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>500000</v>
+        <f>500000/100000</f>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -479,7 +6031,8 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1000000</v>
+        <f>1000000/100000</f>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -493,7 +6046,8 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5000000</v>
+        <f>5000000/100000</f>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -505,266 +6059,320 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>10000000/100000</f>
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1000</v>
-      </c>
-      <c r="B14">
-        <v>1170</v>
-      </c>
-      <c r="C14">
-        <v>1020</v>
-      </c>
-      <c r="D14">
-        <v>1020</v>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5000</v>
+        <f>1000/100000</f>
+        <v>0.01</v>
       </c>
       <c r="B15">
-        <v>510</v>
+        <v>1170</v>
       </c>
       <c r="C15">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="D15">
-        <v>620</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10000</v>
+        <f>5000/100000</f>
+        <v>0.05</v>
       </c>
       <c r="B16">
+        <v>510</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+      <c r="D16">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>10000/100000</f>
+        <v>0.1</v>
+      </c>
+      <c r="B17">
         <v>300</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>930</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>50000</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>50000/100000</f>
+        <v>0.5</v>
+      </c>
+      <c r="B18">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>630</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>100000</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>100000/100000</f>
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>5.5</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>420</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>500000</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1000000</v>
+        <f>500000/100000</f>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5000000</v>
+        <f>1000000/100000</f>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>5000000/100000</f>
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0.8</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>10000000/100000</f>
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>LOG(8,2)</f>
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1.6</v>
+      </c>
+      <c r="C27">
+        <v>240</v>
+      </c>
+      <c r="D27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>LOG(16,2)</f>
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2.4</v>
+      </c>
+      <c r="C28">
+        <v>380</v>
+      </c>
+      <c r="D28">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>LOG(32,2)</f>
         <v>5</v>
       </c>
+      <c r="B29">
+        <v>4.8</v>
+      </c>
+      <c r="C29">
+        <v>530</v>
+      </c>
+      <c r="D29">
+        <v>740</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
+      <c r="B30">
+        <v>5.5</v>
+      </c>
+      <c r="C30">
+        <v>530</v>
+      </c>
+      <c r="D30">
+        <v>775</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>5.5</v>
+      </c>
+      <c r="C31">
+        <v>530</v>
+      </c>
+      <c r="D31">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B32">
+        <v>4.8</v>
+      </c>
+      <c r="C32">
+        <v>525</v>
+      </c>
+      <c r="D32">
+        <v>730</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>16</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>4.8</v>
+      </c>
+      <c r="C33">
+        <v>520</v>
+      </c>
+      <c r="D33">
+        <v>730</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1024</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>4.7</v>
+      </c>
+      <c r="C34">
+        <v>520</v>
+      </c>
+      <c r="D34">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A34:XFD34"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A25:XFD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>num_boids</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">naïve </t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>with</t>
   </si>
 </sst>
 </file>
@@ -127,10 +133,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17943477995483123"/>
-          <c:y val="3.3212507195527416E-2"/>
-          <c:w val="0.81466184459500701"/>
-          <c:h val="0.77382737304804217"/>
+          <c:x val="0.12941582302212223"/>
+          <c:y val="3.5708249473300133E-2"/>
+          <c:w val="0.86424871477842125"/>
+          <c:h val="0.81471339839776102"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -445,8 +451,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="633899376"/>
-        <c:axId val="633907216"/>
+        <c:axId val="544930448"/>
+        <c:axId val="544926136"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -573,7 +579,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="633899376"/>
+        <c:axId val="544930448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +610,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Boids (in 100K)</a:t>
+                  <a:t> of Boids (100K)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -614,8 +620,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.3331474699383507"/>
-              <c:y val="0.90805722902322217"/>
+              <c:x val="0.3331474371488688"/>
+              <c:y val="0.93077163015437181"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -684,7 +690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633907216"/>
+        <c:crossAx val="544926136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -692,7 +698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="633907216"/>
+        <c:axId val="544926136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -793,7 +799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633899376"/>
+        <c:crossAx val="544930448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,10 +817,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73207318561923951"/>
-          <c:y val="0.18367223533433671"/>
-          <c:w val="0.24467100042727216"/>
-          <c:h val="0.30612451869123058"/>
+          <c:x val="0.79818897637795261"/>
+          <c:y val="0.38810153713637346"/>
+          <c:w val="0.20181110694496521"/>
+          <c:h val="0.30269270152890082"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -855,12 +861,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1222,8 +1223,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="636783936"/>
-        <c:axId val="636787856"/>
+        <c:axId val="544932408"/>
+        <c:axId val="544932800"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1350,7 +1351,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="636783936"/>
+        <c:axId val="544932408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636787856"/>
+        <c:crossAx val="544932800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1459,7 +1460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636787856"/>
+        <c:axId val="544932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1560,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636783936"/>
+        <c:crossAx val="544932408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,8 +1948,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="636136688"/>
-        <c:axId val="636137080"/>
+        <c:axId val="544926528"/>
+        <c:axId val="544933192"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2069,7 +2070,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="636136688"/>
+        <c:axId val="544926528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +2181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636137080"/>
+        <c:crossAx val="544933192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2188,7 +2189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636137080"/>
+        <c:axId val="544933192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -2225,8 +2226,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.875968992248062E-3"/>
-              <c:y val="0.33746535552928369"/>
+              <c:x val="9.6259556607364988E-2"/>
+              <c:y val="0.33746544548461055"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2293,7 +2294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636136688"/>
+        <c:crossAx val="544926528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2313,8 +2314,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80061387411457396"/>
           <c:y val="0.34089064083879017"/>
-          <c:w val="0.19576151100560091"/>
-          <c:h val="0.30615236049049749"/>
+          <c:w val="0.12149424360649934"/>
+          <c:h val="0.21977271468740578"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2355,12 +2356,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2732,8 +2728,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="540931584"/>
-        <c:axId val="540928056"/>
+        <c:axId val="544930840"/>
+        <c:axId val="544926920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2854,7 +2850,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="540931584"/>
+        <c:axId val="544930840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2860,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540928056"/>
+        <c:crossAx val="544926920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540928056"/>
+        <c:axId val="544926920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2883,7 +2879,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540931584"/>
+        <c:crossAx val="544930840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2901,6 +2897,663 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13415048118985126"/>
+          <c:y val="3.9010563571080223E-2"/>
+          <c:w val="0.86584951881014882"/>
+          <c:h val="0.81757728200641588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>without</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>with</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="544927704"/>
+        <c:axId val="544928488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>num_boids</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$P$3:$P$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="544927704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of boids (100K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41710979877515308"/>
+              <c:y val="0.92960629921259841"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544928488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544928488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777779E-3"/>
+              <c:y val="0.37555920093321671"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544927704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -3085,6 +3738,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5149,20 +5842,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5183,16 +6392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5215,16 +6424,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>21299</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>458932</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>148341</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5233,10 +6442,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5012399" y="4752976"/>
-          <a:ext cx="4095233" cy="3015365"/>
+          <a:off x="3802724" y="5029201"/>
+          <a:ext cx="6598576" cy="4219575"/>
           <a:chOff x="5003800" y="4752975"/>
-          <a:chExt cx="4092309" cy="3015639"/>
+          <a:chExt cx="4092309" cy="3029315"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -5276,10 +6485,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="5674961" y="6183047"/>
-              <a:ext cx="102403" cy="222250"/>
-              <a:chOff x="4587755" y="5098444"/>
-              <a:chExt cx="466507" cy="1227666"/>
+              <a:off x="5665319" y="6183047"/>
+              <a:ext cx="111839" cy="222250"/>
+              <a:chOff x="4543899" y="5098444"/>
+              <a:chExt cx="509501" cy="1227666"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -5289,10 +6498,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm flipH="1">
-                <a:off x="4587755" y="5490027"/>
-                <a:ext cx="466507" cy="433918"/>
-                <a:chOff x="2769556" y="5200557"/>
-                <a:chExt cx="666775" cy="403405"/>
+                <a:off x="4543899" y="5490027"/>
+                <a:ext cx="509501" cy="433918"/>
+                <a:chOff x="2770788" y="5200557"/>
+                <a:chExt cx="728226" cy="403405"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:grpSp>
@@ -5302,10 +6511,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="2769556" y="5200557"/>
-                  <a:ext cx="666775" cy="335112"/>
-                  <a:chOff x="2769556" y="5200557"/>
-                  <a:chExt cx="666775" cy="335112"/>
+                  <a:off x="2770788" y="5200557"/>
+                  <a:ext cx="728226" cy="335112"/>
+                  <a:chOff x="2770788" y="5200557"/>
+                  <a:chExt cx="728226" cy="335112"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:cxnSp macro="">
@@ -5351,8 +6560,8 @@
                 </xdr:nvCxnSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="2822501" y="5256271"/>
-                    <a:ext cx="613824" cy="89957"/>
+                    <a:off x="2823758" y="5256272"/>
+                    <a:ext cx="675207" cy="89958"/>
                   </a:xfrm>
                   <a:prstGeom prst="line">
                     <a:avLst/>
@@ -5387,8 +6596,8 @@
                 </xdr:nvCxnSpPr>
                 <xdr:spPr>
                   <a:xfrm flipH="1">
-                    <a:off x="2822501" y="5356813"/>
-                    <a:ext cx="613830" cy="89957"/>
+                    <a:off x="2823799" y="5356815"/>
+                    <a:ext cx="675215" cy="89958"/>
                   </a:xfrm>
                   <a:prstGeom prst="line">
                     <a:avLst/>
@@ -5423,8 +6632,8 @@
                 </xdr:nvCxnSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="2769556" y="5445712"/>
-                    <a:ext cx="613843" cy="89957"/>
+                    <a:off x="2770788" y="5445711"/>
+                    <a:ext cx="675227" cy="89958"/>
                   </a:xfrm>
                   <a:prstGeom prst="line">
                     <a:avLst/>
@@ -5460,8 +6669,8 @@
               </xdr:nvCxnSpPr>
               <xdr:spPr>
                 <a:xfrm flipH="1">
-                  <a:off x="3097569" y="5542019"/>
-                  <a:ext cx="332405" cy="61943"/>
+                  <a:off x="3112801" y="5542020"/>
+                  <a:ext cx="365652" cy="61942"/>
                 </a:xfrm>
                 <a:prstGeom prst="line">
                   <a:avLst/>
@@ -5497,8 +6706,8 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm flipV="1">
-                <a:off x="4804666" y="5098444"/>
-                <a:ext cx="0" cy="386291"/>
+                <a:off x="4782297" y="5098444"/>
+                <a:ext cx="0" cy="386290"/>
               </a:xfrm>
               <a:prstGeom prst="line">
                 <a:avLst/>
@@ -5533,8 +6742,8 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="4807015" y="5918652"/>
-                <a:ext cx="0" cy="407458"/>
+                <a:off x="4784723" y="5918651"/>
+                <a:ext cx="0" cy="407459"/>
               </a:xfrm>
               <a:prstGeom prst="line">
                 <a:avLst/>
@@ -5572,7 +6781,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="5079487" y="5668351"/>
+          <a:off x="5055858" y="5682027"/>
           <a:ext cx="3270249" cy="2100263"/>
         </xdr:xfrm>
         <a:graphic>
@@ -5582,6 +6791,36 @@
         </a:graphic>
       </xdr:graphicFrame>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5909,10 +7148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,12 +7159,12 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5938,8 +7177,17 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1000/100000</f>
         <v>0.01</v>
@@ -5953,8 +7201,18 @@
       <c r="D3">
         <v>1750</v>
       </c>
+      <c r="P3">
+        <f>1000/100000</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q3">
+        <v>1750</v>
+      </c>
+      <c r="R3">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>5000/100000</f>
         <v>0.05</v>
@@ -5968,8 +7226,18 @@
       <c r="D4">
         <v>800</v>
       </c>
+      <c r="P4">
+        <f>5000/100000</f>
+        <v>0.05</v>
+      </c>
+      <c r="Q4">
+        <v>800</v>
+      </c>
+      <c r="R4">
+        <v>620</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>10000/100000</f>
         <v>0.1</v>
@@ -5983,8 +7251,24 @@
       <c r="D5">
         <v>1770</v>
       </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>350</v>
+      </c>
+      <c r="P5">
+        <f>10000/100000</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>1770</v>
+      </c>
+      <c r="R5">
+        <v>940</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>50000/100000</f>
         <v>0.5</v>
@@ -5998,8 +7282,18 @@
       <c r="D6">
         <v>1160</v>
       </c>
+      <c r="P6">
+        <f>50000/100000</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>1160</v>
+      </c>
+      <c r="R6">
+        <v>720</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>100000/100000</f>
         <v>1</v>
@@ -6013,8 +7307,18 @@
       <c r="D7">
         <v>770</v>
       </c>
+      <c r="P7">
+        <f>100000/100000</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>770</v>
+      </c>
+      <c r="R7">
+        <v>550</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>500000/100000</f>
         <v>5</v>
@@ -6028,8 +7332,18 @@
       <c r="D8">
         <v>120</v>
       </c>
+      <c r="P8">
+        <f>500000/100000</f>
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>120</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1000000/100000</f>
         <v>10</v>
@@ -6043,8 +7357,18 @@
       <c r="D9">
         <v>35</v>
       </c>
+      <c r="P9">
+        <f>1000000/100000</f>
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>35</v>
+      </c>
+      <c r="R9">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>5000000/100000</f>
         <v>50</v>
@@ -6058,8 +7382,18 @@
       <c r="D10">
         <v>1.6</v>
       </c>
+      <c r="P10">
+        <f>5000000/100000</f>
+        <v>50</v>
+      </c>
+      <c r="Q10">
+        <v>1.6</v>
+      </c>
+      <c r="R10">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>10000000/100000</f>
         <v>100</v>
@@ -6073,13 +7407,23 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="P11">
+        <f>10000000/100000</f>
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -6093,7 +7437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>1000/100000</f>
         <v>0.01</v>
@@ -6108,7 +7452,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>5000/100000</f>
         <v>0.05</v>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -7150,8 +7150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
